--- a/learning-excel/Excel Working From Beginner to Advanced - MyFirstExcelWorkbook-01.xlsx
+++ b/learning-excel/Excel Working From Beginner to Advanced - MyFirstExcelWorkbook-01.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analysis-foundations\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analysis-foundations\learning-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8C6F94-51E1-4533-9B08-5223E1A23CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE3CCC-10B4-42D1-B2A3-A3DF62E5DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{4EC8B933-5C16-44B8-8BD1-3B03B4E7E629}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{4EC8B933-5C16-44B8-8BD1-3B03B4E7E629}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart Monthly Budget" sheetId="14" r:id="rId1"/>
     <sheet name="Monthly Budget " sheetId="12" r:id="rId2"/>
     <sheet name="Copy Exercise" sheetId="3" r:id="rId3"/>
+    <sheet name="Monthly Budget - Print Setting" sheetId="15" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
   <si>
     <t>Montlhy Budget</t>
   </si>
@@ -221,7 +222,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1318,7 +1329,11 @@
                     <a:fld id="{39F4B49C-04F2-4601-A3C2-81711EE6DA8D}" type="CATEGORYNAME">
                       <a:rPr lang="en-US" sz="900"/>
                       <a:pPr>
-                        <a:defRPr sz="900"/>
+                        <a:defRPr sz="900">
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
@@ -1330,7 +1345,11 @@
                     <a:fld id="{E9D08D94-ADB8-49CF-8815-33702038E60E}" type="PERCENTAGE">
                       <a:rPr lang="en-US" sz="900" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr sz="900"/>
+                        <a:defRPr sz="900">
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
@@ -1382,7 +1401,7 @@
                   <a:pPr>
                     <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent3"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -1437,7 +1456,11 @@
                     <a:fld id="{2C98C88E-E722-4F5A-92AF-2749FF11E031}" type="CATEGORYNAME">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[CATEGORY NAME]</a:t>
                     </a:fld>
@@ -1449,7 +1472,11 @@
                     <a:fld id="{E794BE84-85AD-4E40-8CD4-C26E0630E6E1}" type="PERCENTAGE">
                       <a:rPr lang="en-US" sz="800" baseline="0"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[PERCENTAGE]</a:t>
                     </a:fld>
@@ -1501,7 +1528,7 @@
                   <a:pPr>
                     <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                       <a:solidFill>
-                        <a:schemeClr val="accent4"/>
+                        <a:schemeClr val="accent1"/>
                       </a:solidFill>
                       <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
@@ -2226,6 +2253,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2716,6 +2750,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -2858,6 +2899,1975 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>'Monthly Budget - Print Setting'!$B$18:$G$18</c:f>
+          <c:strCache>
+            <c:ptCount val="6"/>
+            <c:pt idx="0">
+              <c:v>Monthly Budget</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget - Print Setting'!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>January-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.5772872808694768E-2"/>
+                  <c:y val="2.1328950355328558E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:gradFill>
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="5000"/>
+                          <a:lumOff val="95000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="74000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="83000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="30000"/>
+                          <a:lumOff val="70000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                  </a:gradFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.7175563466424752E-2"/>
+                  <c:y val="3.8854793212954708E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:gradFill>
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="5000"/>
+                          <a:lumOff val="95000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="74000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="83000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="30000"/>
+                          <a:lumOff val="70000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                  </a:gradFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.0203030189897462E-2"/>
+                  <c:y val="2.8629847630598167E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{39F4B49C-04F2-4601-A3C2-81711EE6DA8D}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" sz="900"/>
+                      <a:pPr>
+                        <a:defRPr sz="900">
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{E9D08D94-ADB8-49CF-8815-33702038E60E}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="900" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr sz="900">
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="900" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:gradFill>
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="5000"/>
+                          <a:lumOff val="95000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="74000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="83000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="30000"/>
+                          <a:lumOff val="70000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                  </a:gradFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.693726378112709E-2"/>
+                  <c:y val="-6.9529629960024639E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{2C98C88E-E722-4F5A-92AF-2749FF11E031}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>
+</a:t>
+                    </a:r>
+                    <a:fld id="{E794BE84-85AD-4E40-8CD4-C26E0630E6E1}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="800" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr>
+                          <a:solidFill>
+                            <a:schemeClr val="accent1"/>
+                          </a:solidFill>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:gradFill>
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="5000"/>
+                          <a:lumOff val="95000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="74000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="83000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="30000"/>
+                          <a:lumOff val="70000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                  </a:gradFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:gradFill>
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="5000"/>
+                          <a:lumOff val="95000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="74000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="83000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="30000"/>
+                          <a:lumOff val="70000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                  </a:gradFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12055934819268992"/>
+                  <c:y val="2.4711912218773467E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:gradFill>
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="5000"/>
+                          <a:lumOff val="95000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="74000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="83000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="30000"/>
+                          <a:lumOff val="70000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                  </a:gradFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.20385033982062431"/>
+                      <c:h val="0.10099257993248072"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:ln>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+              </a:ln>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:gradFill>
+                    <a:gsLst>
+                      <a:gs pos="0">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="5000"/>
+                          <a:lumOff val="95000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="74000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="83000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="45000"/>
+                          <a:lumOff val="55000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                      <a:gs pos="100000">
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="30000"/>
+                          <a:lumOff val="70000"/>
+                        </a:schemeClr>
+                      </a:gs>
+                    </a:gsLst>
+                    <a:lin ang="5400000" scaled="1"/>
+                  </a:gradFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monthly Budget - Print Setting'!$B$21:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Online Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Electric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Market</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mom's phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget - Print Setting'!$C$21:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-">
+                  <c:v>48000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-54E7-48DB-9E11-246A779D5083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget - Print Setting'!$D$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>February-24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000018-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monthly Budget - Print Setting'!$B$21:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Online Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Electric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Market</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mom's phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget - Print Setting'!$D$21:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5850</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-54E7-48DB-9E11-246A779D5083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monthly Budget - Print Setting'!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>March-25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001B-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001D-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000001F-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000021-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000023-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="20000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000025-54E7-48DB-9E11-246A779D5083}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001B-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001D-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000001F-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000021-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent5"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000023-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="accent6"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="1"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000025-54E7-48DB-9E11-246A779D5083}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Monthly Budget - Print Setting'!$B$21:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Credit Card</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Water</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Online Shopping</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Electric</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Market</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Mom's phone</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monthly Budget - Print Setting'!$E$21:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-">
+                  <c:v>35000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5350</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000026-54E7-48DB-9E11-246A779D5083}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2899,6 +4909,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3954,6 +6004,526 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="63500" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="20000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:effectLst>
+        <a:outerShdw blurRad="88900" sx="102000" sy="102000" algn="ctr" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="10000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+      <a:scene3d>
+        <a:camera prst="orthographicFront"/>
+        <a:lightRig rig="threePt" dir="t"/>
+      </a:scene3d>
+      <a:sp3d>
+        <a:bevelT w="127000" h="127000"/>
+        <a:bevelB w="127000" h="127000"/>
+      </a:sp3d>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A1FB9937-001D-44FF-8301-04919C57E8E3}">
   <sheetPr/>
@@ -3961,7 +6531,8 @@
     <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4747,7 +7318,1220 @@
 </dgm:colorsDef>
 </file>
 
+<file path=xl/diagrams/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:colorsDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/colors/colorful3">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="colorful" pri="10300"/>
+  </dgm:catLst>
+  <dgm:styleLbl name="node0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:alpha val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="20000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:fillClrLst/>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:shade val="80000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst4">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst/>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="70000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent6">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3"/>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:fillClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+      <a:schemeClr val="accent4">
+        <a:tint val="40000"/>
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent2"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent4"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent5"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst>
+      <a:schemeClr val="accent6"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:shade val="90000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent2">
+        <a:tint val="50000"/>
+        <a:alpha val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="accent3"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="accent3">
+        <a:tint val="40000"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="lt1"/>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="dk1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:fillClrLst meth="repeat">
+      <a:schemeClr val="lt1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:fillClrLst>
+    <dgm:linClrLst meth="repeat">
+      <a:schemeClr val="dk1">
+        <a:alpha val="0"/>
+      </a:schemeClr>
+    </dgm:linClrLst>
+    <dgm:effectClrLst/>
+    <dgm:txLinClrLst/>
+    <dgm:txFillClrLst meth="repeat">
+      <a:schemeClr val="tx1"/>
+    </dgm:txFillClrLst>
+    <dgm:txEffectClrLst/>
+  </dgm:styleLbl>
+</dgm:colorsDef>
+</file>
+
 <file path=xl/diagrams/data1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dgm:ptLst>
+    <dgm:pt modelId="{4173FF9D-5323-4896-AE26-32E51B137E13}" type="doc">
+      <dgm:prSet loTypeId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9" loCatId="process" qsTypeId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d1" qsCatId="3D" csTypeId="urn:microsoft.com/office/officeart/2005/8/colors/colorful3" csCatId="colorful" phldr="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{C6FE03DD-B8B2-4F7B-89FE-F1F9B8B58041}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Collect Income</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{79F28220-F672-4D9D-AD17-CBD58F83FB92}" type="parTrans" cxnId="{3379642D-9330-4843-8B62-BAB065BCC2A9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{2EAE0C7E-F241-4C4F-9476-FBA049F348BC}" type="sibTrans" cxnId="{3379642D-9330-4843-8B62-BAB065BCC2A9}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{53E78692-A387-468C-8AF6-75B55150F00E}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Plan Spending</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{9F0F3447-27B3-4C4C-AA74-EA130DA7EC0B}" type="parTrans" cxnId="{E26F05AA-26AE-471A-9CC0-29D2D56D36DE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D57B18F6-82BC-40EF-8D8C-00C62A7BCD2D}" type="sibTrans" cxnId="{E26F05AA-26AE-471A-9CC0-29D2D56D36DE}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6C6F4E1C-A4CD-4408-B8D8-57C0B50E4216}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Review &amp; Adjust</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EBA17695-3225-49CC-8947-0CB7785E85CB}" type="parTrans" cxnId="{FC52EEF0-846C-468A-A94A-76BAD9428B99}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FF261061-0F82-442A-A9EC-FE73D061F632}" type="sibTrans" cxnId="{FC52EEF0-846C-468A-A94A-76BAD9428B99}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{19E38DFE-C139-4E01-9EE7-C3B28CEB3E88}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Salary/ side income</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EA687DB3-8E22-4F77-9A97-1A1546A64BC2}" type="parTrans" cxnId="{12C018F5-114A-4E68-B78D-1B737E211AE1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E0E8B215-35DE-4FA1-90B3-CDDFFBFE8F4D}" type="sibTrans" cxnId="{12C018F5-114A-4E68-B78D-1B737E211AE1}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{59DAE2AE-AC20-47F1-805F-EEF348E22EA2}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Set a target amount</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{DFD42484-475D-4BE6-8534-89DFFD57BEEB}" type="parTrans" cxnId="{DAD890F8-E55E-4BC3-9AC9-DEB7B39005A5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{06305694-21EB-4753-ACDF-E16CF197158D}" type="sibTrans" cxnId="{DAD890F8-E55E-4BC3-9AC9-DEB7B39005A5}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{F6A4E565-2BEF-4FEF-8F21-4D0A2426660F}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Bills</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{EEF08427-D08B-4016-925A-483374305C7D}" type="parTrans" cxnId="{B001651A-5A3E-42AC-910C-80A53BF70F46}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{CA9116EA-3533-4C50-BBEF-D40280B1346C}" type="sibTrans" cxnId="{B001651A-5A3E-42AC-910C-80A53BF70F46}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8EC8719F-8C9B-476B-98F8-1AE44BA86555}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Daily needs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{E3284D04-025D-430E-BD60-98E31885BEF1}" type="parTrans" cxnId="{A5053DD7-5152-41E4-B141-B19AD435AC73}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{8AD8E199-EB19-4160-A91D-0BD2D9A2633B}" type="sibTrans" cxnId="{A5053DD7-5152-41E4-B141-B19AD435AC73}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{580A13C2-31D2-47D4-9E1E-FF92456CA4FE}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Money left</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{C73DFC92-F16E-4909-A30E-C387FC5C515B}" type="parTrans" cxnId="{E19A0000-0D76-4460-9B57-0A2D44726F32}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{5C492D1F-F1CE-43B2-94DA-87E4583C3564}" type="sibTrans" cxnId="{E19A0000-0D76-4460-9B57-0A2D44726F32}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{6648B837-72B9-4317-BD95-466BDDC70F21}">
+      <dgm:prSet phldrT="[Text]"/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="tr-TR"/>
+            <a:t>Cut unnecessary spending</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{FA833BC1-82EC-4E3D-A77D-7DCD7812FB7C}" type="parTrans" cxnId="{FB1D8B5B-67B5-4D6F-AB4C-FB66E128AA95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{59F8B0EF-4295-47FC-B0C7-63F53021D59A}" type="sibTrans" cxnId="{FB1D8B5B-67B5-4D6F-AB4C-FB66E128AA95}">
+      <dgm:prSet/>
+      <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </dgm:t>
+    </dgm:pt>
+    <dgm:pt modelId="{D4BF4E1A-1A3F-4580-8BFD-70414F3F5DFE}" type="pres">
+      <dgm:prSet presAssocID="{4173FF9D-5323-4896-AE26-32E51B137E13}" presName="CompostProcess" presStyleCnt="0">
+        <dgm:presLayoutVars>
+          <dgm:dir/>
+          <dgm:resizeHandles val="exact"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{5E75CDF1-1425-4425-B947-36B2AD341E94}" type="pres">
+      <dgm:prSet presAssocID="{4173FF9D-5323-4896-AE26-32E51B137E13}" presName="arrow" presStyleLbl="bgShp" presStyleIdx="0" presStyleCnt="1"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3CAEE456-2A9E-43BA-AA91-5C443A8B5630}" type="pres">
+      <dgm:prSet presAssocID="{4173FF9D-5323-4896-AE26-32E51B137E13}" presName="linearProcess" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{757AE223-1256-4756-98B5-071C900A0DA8}" type="pres">
+      <dgm:prSet presAssocID="{C6FE03DD-B8B2-4F7B-89FE-F1F9B8B58041}" presName="textNode" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{04CA75D5-A336-433B-94D3-D55701430297}" type="pres">
+      <dgm:prSet presAssocID="{2EAE0C7E-F241-4C4F-9476-FBA049F348BC}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}" type="pres">
+      <dgm:prSet presAssocID="{53E78692-A387-468C-8AF6-75B55150F00E}" presName="textNode" presStyleLbl="node1" presStyleIdx="1" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{3BF14AD8-4E61-410E-BD98-650BE33B76F0}" type="pres">
+      <dgm:prSet presAssocID="{D57B18F6-82BC-40EF-8D8C-00C62A7BCD2D}" presName="sibTrans" presStyleCnt="0"/>
+      <dgm:spPr/>
+    </dgm:pt>
+    <dgm:pt modelId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}" type="pres">
+      <dgm:prSet presAssocID="{6C6F4E1C-A4CD-4408-B8D8-57C0B50E4216}" presName="textNode" presStyleLbl="node1" presStyleIdx="2" presStyleCnt="3">
+        <dgm:presLayoutVars>
+          <dgm:bulletEnabled val="1"/>
+        </dgm:presLayoutVars>
+      </dgm:prSet>
+      <dgm:spPr/>
+    </dgm:pt>
+  </dgm:ptLst>
+  <dgm:cxnLst>
+    <dgm:cxn modelId="{E19A0000-0D76-4460-9B57-0A2D44726F32}" srcId="{6C6F4E1C-A4CD-4408-B8D8-57C0B50E4216}" destId="{580A13C2-31D2-47D4-9E1E-FF92456CA4FE}" srcOrd="0" destOrd="0" parTransId="{C73DFC92-F16E-4909-A30E-C387FC5C515B}" sibTransId="{5C492D1F-F1CE-43B2-94DA-87E4583C3564}"/>
+    <dgm:cxn modelId="{451D7B01-03A5-4117-AC66-B72857573BD5}" type="presOf" srcId="{C6FE03DD-B8B2-4F7B-89FE-F1F9B8B58041}" destId="{757AE223-1256-4756-98B5-071C900A0DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{514B7D0F-6EE3-42A2-A262-B25E769BD2EA}" type="presOf" srcId="{19E38DFE-C139-4E01-9EE7-C3B28CEB3E88}" destId="{757AE223-1256-4756-98B5-071C900A0DA8}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{B001651A-5A3E-42AC-910C-80A53BF70F46}" srcId="{53E78692-A387-468C-8AF6-75B55150F00E}" destId="{F6A4E565-2BEF-4FEF-8F21-4D0A2426660F}" srcOrd="0" destOrd="0" parTransId="{EEF08427-D08B-4016-925A-483374305C7D}" sibTransId="{CA9116EA-3533-4C50-BBEF-D40280B1346C}"/>
+    <dgm:cxn modelId="{3379642D-9330-4843-8B62-BAB065BCC2A9}" srcId="{4173FF9D-5323-4896-AE26-32E51B137E13}" destId="{C6FE03DD-B8B2-4F7B-89FE-F1F9B8B58041}" srcOrd="0" destOrd="0" parTransId="{79F28220-F672-4D9D-AD17-CBD58F83FB92}" sibTransId="{2EAE0C7E-F241-4C4F-9476-FBA049F348BC}"/>
+    <dgm:cxn modelId="{FB1D8B5B-67B5-4D6F-AB4C-FB66E128AA95}" srcId="{6C6F4E1C-A4CD-4408-B8D8-57C0B50E4216}" destId="{6648B837-72B9-4317-BD95-466BDDC70F21}" srcOrd="1" destOrd="0" parTransId="{FA833BC1-82EC-4E3D-A77D-7DCD7812FB7C}" sibTransId="{59F8B0EF-4295-47FC-B0C7-63F53021D59A}"/>
+    <dgm:cxn modelId="{6F9F5E45-D8E3-4F21-8E28-859B8764B1B4}" type="presOf" srcId="{580A13C2-31D2-47D4-9E1E-FF92456CA4FE}" destId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{D266504A-F278-4177-B7D1-2FF54F0B7B9E}" type="presOf" srcId="{6C6F4E1C-A4CD-4408-B8D8-57C0B50E4216}" destId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{B94ED89A-27F3-41AD-840F-660FEABD68ED}" type="presOf" srcId="{59DAE2AE-AC20-47F1-805F-EEF348E22EA2}" destId="{757AE223-1256-4756-98B5-071C900A0DA8}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{E26F05AA-26AE-471A-9CC0-29D2D56D36DE}" srcId="{4173FF9D-5323-4896-AE26-32E51B137E13}" destId="{53E78692-A387-468C-8AF6-75B55150F00E}" srcOrd="1" destOrd="0" parTransId="{9F0F3447-27B3-4C4C-AA74-EA130DA7EC0B}" sibTransId="{D57B18F6-82BC-40EF-8D8C-00C62A7BCD2D}"/>
+    <dgm:cxn modelId="{A9ECFBB6-444D-4DF2-B96F-A0399084DB52}" type="presOf" srcId="{53E78692-A387-468C-8AF6-75B55150F00E}" destId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{A9C2CBC4-D4AD-4390-A2E1-9BBA3EA593B8}" type="presOf" srcId="{8EC8719F-8C9B-476B-98F8-1AE44BA86555}" destId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{A5053DD7-5152-41E4-B141-B19AD435AC73}" srcId="{53E78692-A387-468C-8AF6-75B55150F00E}" destId="{8EC8719F-8C9B-476B-98F8-1AE44BA86555}" srcOrd="1" destOrd="0" parTransId="{E3284D04-025D-430E-BD60-98E31885BEF1}" sibTransId="{8AD8E199-EB19-4160-A91D-0BD2D9A2633B}"/>
+    <dgm:cxn modelId="{347036E4-D246-42E6-9B42-82AB6CC0AB6E}" type="presOf" srcId="{F6A4E565-2BEF-4FEF-8F21-4D0A2426660F}" destId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}" srcOrd="0" destOrd="1" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{E2F98EEB-E8C5-4F80-A8FF-778AF382F9BD}" type="presOf" srcId="{4173FF9D-5323-4896-AE26-32E51B137E13}" destId="{D4BF4E1A-1A3F-4580-8BFD-70414F3F5DFE}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{35A80DEC-41F1-4DF1-A7B3-97D773FB82D2}" type="presOf" srcId="{6648B837-72B9-4317-BD95-466BDDC70F21}" destId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}" srcOrd="0" destOrd="2" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{FC52EEF0-846C-468A-A94A-76BAD9428B99}" srcId="{4173FF9D-5323-4896-AE26-32E51B137E13}" destId="{6C6F4E1C-A4CD-4408-B8D8-57C0B50E4216}" srcOrd="2" destOrd="0" parTransId="{EBA17695-3225-49CC-8947-0CB7785E85CB}" sibTransId="{FF261061-0F82-442A-A9EC-FE73D061F632}"/>
+    <dgm:cxn modelId="{12C018F5-114A-4E68-B78D-1B737E211AE1}" srcId="{C6FE03DD-B8B2-4F7B-89FE-F1F9B8B58041}" destId="{19E38DFE-C139-4E01-9EE7-C3B28CEB3E88}" srcOrd="0" destOrd="0" parTransId="{EA687DB3-8E22-4F77-9A97-1A1546A64BC2}" sibTransId="{E0E8B215-35DE-4FA1-90B3-CDDFFBFE8F4D}"/>
+    <dgm:cxn modelId="{DAD890F8-E55E-4BC3-9AC9-DEB7B39005A5}" srcId="{C6FE03DD-B8B2-4F7B-89FE-F1F9B8B58041}" destId="{59DAE2AE-AC20-47F1-805F-EEF348E22EA2}" srcOrd="1" destOrd="0" parTransId="{DFD42484-475D-4BE6-8534-89DFFD57BEEB}" sibTransId="{06305694-21EB-4753-ACDF-E16CF197158D}"/>
+    <dgm:cxn modelId="{9DCCC64E-9736-48E0-B79B-4F9E3FA013B5}" type="presParOf" srcId="{D4BF4E1A-1A3F-4580-8BFD-70414F3F5DFE}" destId="{5E75CDF1-1425-4425-B947-36B2AD341E94}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{C423E5C7-5E19-4CB6-A2F8-7B9DFC29CB3E}" type="presParOf" srcId="{D4BF4E1A-1A3F-4580-8BFD-70414F3F5DFE}" destId="{3CAEE456-2A9E-43BA-AA91-5C443A8B5630}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{BFF2E25A-38A2-4206-AB33-36E5978A7898}" type="presParOf" srcId="{3CAEE456-2A9E-43BA-AA91-5C443A8B5630}" destId="{757AE223-1256-4756-98B5-071C900A0DA8}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{018BF93B-6D37-4D4E-AF83-3CDBEE17E38F}" type="presParOf" srcId="{3CAEE456-2A9E-43BA-AA91-5C443A8B5630}" destId="{04CA75D5-A336-433B-94D3-D55701430297}" srcOrd="1" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{E44B6764-23EA-417D-985A-B7EBBD1189C8}" type="presParOf" srcId="{3CAEE456-2A9E-43BA-AA91-5C443A8B5630}" destId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}" srcOrd="2" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{0E577DCC-9C34-401F-8B75-F3AD780A7BF1}" type="presParOf" srcId="{3CAEE456-2A9E-43BA-AA91-5C443A8B5630}" destId="{3BF14AD8-4E61-410E-BD98-650BE33B76F0}" srcOrd="3" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+    <dgm:cxn modelId="{B565D461-B469-4A17-9F10-38BA854B8179}" type="presParOf" srcId="{3CAEE456-2A9E-43BA-AA91-5C443A8B5630}" destId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}" srcOrd="4" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9"/>
+  </dgm:cxnLst>
+  <dgm:bg/>
+  <dgm:whole/>
+  <dgm:extLst>
+    <a:ext uri="http://schemas.microsoft.com/office/drawing/2008/diagram">
+      <dsp:dataModelExt xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" relId="rId8" minVer="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+    </a:ext>
+    <a:ext uri="{C62137D5-CB1D-491B-B009-E17868A290BF}">
+      <dgm14:recolorImg xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" val="1"/>
+    </a:ext>
+  </dgm:extLst>
+</dgm:dataModel>
+</file>
+
+<file path=xl/diagrams/data2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:dataModel xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <dgm:ptLst>
     <dgm:pt modelId="{4173FF9D-5323-4896-AE26-32E51B137E13}" type="doc">
@@ -5193,8 +8977,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="342899" y="0"/>
-          <a:ext cx="3886200" cy="2743200"/>
+          <a:off x="344634" y="0"/>
+          <a:ext cx="3905862" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -5272,8 +9056,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="154930" y="822960"/>
-          <a:ext cx="1371600" cy="1097280"/>
+          <a:off x="155713" y="822960"/>
+          <a:ext cx="1378539" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5407,8 +9191,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="208495" y="876525"/>
-        <a:ext cx="1264470" cy="990150"/>
+        <a:off x="209278" y="876525"/>
+        <a:ext cx="1271409" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}">
@@ -5418,8 +9202,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1600199" y="822960"/>
-          <a:ext cx="1371600" cy="1097280"/>
+          <a:off x="1608296" y="822960"/>
+          <a:ext cx="1378539" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5553,8 +9337,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1653764" y="876525"/>
-        <a:ext cx="1264470" cy="990150"/>
+        <a:off x="1661861" y="876525"/>
+        <a:ext cx="1271409" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}">
@@ -5564,8 +9348,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3045469" y="822960"/>
-          <a:ext cx="1371600" cy="1097280"/>
+          <a:off x="3060878" y="822960"/>
+          <a:ext cx="1378539" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5699,8 +9483,537 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3099034" y="876525"/>
-        <a:ext cx="1264470" cy="990150"/>
+        <a:off x="3114443" y="876525"/>
+        <a:ext cx="1271409" cy="990150"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+  </dsp:spTree>
+</dsp:drawing>
+</file>
+
+<file path=xl/diagrams/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<dsp:drawing xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <dsp:spTree>
+    <dsp:nvGrpSpPr>
+      <dsp:cNvPr id="0" name=""/>
+      <dsp:cNvGrpSpPr/>
+    </dsp:nvGrpSpPr>
+    <dsp:grpSpPr/>
+    <dsp:sp modelId="{5E75CDF1-1425-4425-B947-36B2AD341E94}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="515036" y="0"/>
+          <a:ext cx="5837082" cy="4009531"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:tint val="40000"/>
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent3">
+                <a:tint val="40000"/>
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:tint val="40000"/>
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+          <a:bevelT w="50800" h="50800"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </dsp:style>
+    </dsp:sp>
+    <dsp:sp modelId="{757AE223-1256-4756-98B5-071C900A0DA8}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="3950" y="1202859"/>
+          <a:ext cx="2203932" cy="1603812"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="0"/>
+                <a:satOff val="0"/>
+                <a:lumOff val="0"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2200" kern="1200"/>
+            <a:t>Collect Income</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2200" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:t>Salary/ side income</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:t>Set a target amount</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="82242" y="1281151"/>
+        <a:ext cx="2047348" cy="1447228"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="2331611" y="1202859"/>
+          <a:ext cx="2203932" cy="1603812"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="2058582"/>
+                <a:satOff val="12356"/>
+                <a:lumOff val="9413"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="2058582"/>
+                <a:satOff val="12356"/>
+                <a:lumOff val="9413"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="2058582"/>
+                <a:satOff val="12356"/>
+                <a:lumOff val="9413"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2200" kern="1200"/>
+            <a:t>Plan Spending</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2200" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:t>Bills</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:t>Daily needs</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="2409903" y="1281151"/>
+        <a:ext cx="2047348" cy="1447228"/>
+      </dsp:txXfrm>
+    </dsp:sp>
+    <dsp:sp modelId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}">
+      <dsp:nvSpPr>
+        <dsp:cNvPr id="0" name=""/>
+        <dsp:cNvSpPr/>
+      </dsp:nvSpPr>
+      <dsp:spPr>
+        <a:xfrm>
+          <a:off x="4659273" y="1202859"/>
+          <a:ext cx="2203932" cy="1603812"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="4117163"/>
+                <a:satOff val="24712"/>
+                <a:lumOff val="18825"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="4117163"/>
+                <a:satOff val="24712"/>
+                <a:lumOff val="18825"/>
+                <a:alphaOff val="0"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="accent3">
+                <a:hueOff val="4117163"/>
+                <a:satOff val="24712"/>
+                <a:lumOff val="18825"/>
+                <a:alphaOff val="0"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="flat" dir="t"/>
+        </a:scene3d>
+        <a:sp3d prstMaterial="plastic">
+          <a:bevelT w="120900" h="88900"/>
+          <a:bevelB w="88900" h="31750" prst="angle"/>
+        </a:sp3d>
+      </dsp:spPr>
+      <dsp:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </dsp:style>
+      <dsp:txBody>
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="977900">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="35000"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="2200" kern="1200"/>
+            <a:t>Review &amp; Adjust</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2200" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:t>Money left</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+            <a:lnSpc>
+              <a:spcPct val="90000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPct val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPct val="15000"/>
+            </a:spcAft>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:t>Cut unnecessary spending</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+        </a:p>
+      </dsp:txBody>
+      <dsp:txXfrm>
+        <a:off x="4737565" y="1281151"/>
+        <a:ext cx="2047348" cy="1447228"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5708,6 +10021,160 @@
 </file>
 
 <file path=xl/diagrams/layout1.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="process" pri="5000"/>
+    <dgm:cat type="convert" pri="13000"/>
+  </dgm:catLst>
+  <dgm:sampData useDef="1">
+    <dgm:dataModel>
+      <dgm:ptLst/>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:sampData>
+  <dgm:styleData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="3" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="4" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:styleData>
+  <dgm:clrData>
+    <dgm:dataModel>
+      <dgm:ptLst>
+        <dgm:pt modelId="0" type="doc"/>
+        <dgm:pt modelId="1"/>
+        <dgm:pt modelId="2"/>
+        <dgm:pt modelId="3"/>
+        <dgm:pt modelId="4"/>
+      </dgm:ptLst>
+      <dgm:cxnLst>
+        <dgm:cxn modelId="5" srcId="0" destId="1" srcOrd="0" destOrd="0"/>
+        <dgm:cxn modelId="6" srcId="0" destId="2" srcOrd="1" destOrd="0"/>
+        <dgm:cxn modelId="7" srcId="0" destId="3" srcOrd="2" destOrd="0"/>
+        <dgm:cxn modelId="8" srcId="0" destId="4" srcOrd="3" destOrd="0"/>
+      </dgm:cxnLst>
+      <dgm:bg/>
+      <dgm:whole/>
+    </dgm:dataModel>
+  </dgm:clrData>
+  <dgm:layoutNode name="CompostProcess">
+    <dgm:varLst>
+      <dgm:dir/>
+      <dgm:resizeHandles val="exact"/>
+    </dgm:varLst>
+    <dgm:alg type="composite">
+      <dgm:param type="horzAlign" val="ctr"/>
+      <dgm:param type="vertAlign" val="mid"/>
+    </dgm:alg>
+    <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+      <dgm:adjLst/>
+    </dgm:shape>
+    <dgm:presOf/>
+    <dgm:constrLst>
+      <dgm:constr type="w" for="ch" forName="arrow" refType="w" fact="0.85"/>
+      <dgm:constr type="h" for="ch" forName="arrow" refType="h"/>
+      <dgm:constr type="ctrX" for="ch" forName="arrow" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="arrow" refType="h" fact="0.5"/>
+      <dgm:constr type="w" for="ch" forName="linearProcess" refType="w"/>
+      <dgm:constr type="h" for="ch" forName="linearProcess" refType="h" fact="0.4"/>
+      <dgm:constr type="ctrX" for="ch" forName="linearProcess" refType="w" fact="0.5"/>
+      <dgm:constr type="ctrY" for="ch" forName="linearProcess" refType="h" fact="0.5"/>
+    </dgm:constrLst>
+    <dgm:ruleLst/>
+    <dgm:layoutNode name="arrow" styleLbl="bgShp">
+      <dgm:alg type="sp"/>
+      <dgm:choose name="Name0">
+        <dgm:if name="Name1" func="var" arg="dir" op="equ" val="norm">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="rightArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:if>
+        <dgm:else name="Name2">
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="leftArrow" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:presOf/>
+      <dgm:constrLst/>
+      <dgm:ruleLst/>
+    </dgm:layoutNode>
+    <dgm:layoutNode name="linearProcess">
+      <dgm:choose name="Name3">
+        <dgm:if name="Name4" func="var" arg="dir" op="equ" val="norm">
+          <dgm:alg type="lin"/>
+        </dgm:if>
+        <dgm:else name="Name5">
+          <dgm:alg type="lin">
+            <dgm:param type="linDir" val="fromR"/>
+          </dgm:alg>
+        </dgm:else>
+      </dgm:choose>
+      <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+        <dgm:adjLst/>
+      </dgm:shape>
+      <dgm:presOf/>
+      <dgm:constrLst>
+        <dgm:constr type="userA" for="ch" ptType="node" refType="w"/>
+        <dgm:constr type="h" for="ch" ptType="node" refType="h"/>
+        <dgm:constr type="w" for="ch" ptType="node" op="equ"/>
+        <dgm:constr type="w" for="ch" forName="sibTrans" refType="w" fact="0.05"/>
+        <dgm:constr type="primFontSz" for="ch" ptType="node" op="equ" val="65"/>
+      </dgm:constrLst>
+      <dgm:ruleLst/>
+      <dgm:forEach name="Name6" axis="ch" ptType="node">
+        <dgm:layoutNode name="textNode" styleLbl="node1">
+          <dgm:varLst>
+            <dgm:bulletEnabled val="1"/>
+          </dgm:varLst>
+          <dgm:alg type="tx"/>
+          <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" type="roundRect" r:blip="">
+            <dgm:adjLst/>
+          </dgm:shape>
+          <dgm:presOf axis="desOrSelf" ptType="node"/>
+          <dgm:constrLst>
+            <dgm:constr type="userA"/>
+            <dgm:constr type="w" refType="userA" fact="0.3"/>
+            <dgm:constr type="tMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="bMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="lMarg" refType="primFontSz" fact="0.3"/>
+            <dgm:constr type="rMarg" refType="primFontSz" fact="0.3"/>
+          </dgm:constrLst>
+          <dgm:ruleLst>
+            <dgm:rule type="w" val="NaN" fact="1" max="NaN"/>
+            <dgm:rule type="primFontSz" val="5" fact="NaN" max="NaN"/>
+          </dgm:ruleLst>
+        </dgm:layoutNode>
+        <dgm:forEach name="Name7" axis="followSib" ptType="sibTrans" cnt="1">
+          <dgm:layoutNode name="sibTrans">
+            <dgm:alg type="sp"/>
+            <dgm:shape xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:blip="">
+              <dgm:adjLst/>
+            </dgm:shape>
+            <dgm:presOf/>
+            <dgm:constrLst/>
+            <dgm:ruleLst/>
+          </dgm:layoutNode>
+        </dgm:forEach>
+      </dgm:forEach>
+    </dgm:layoutNode>
+  </dgm:layoutNode>
+</dgm:layoutDef>
+</file>
+
+<file path=xl/diagrams/layout2.xml><?xml version="1.0" encoding="utf-8"?>
 <dgm:layoutDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/layout/hProcess9">
   <dgm:title val=""/>
   <dgm:desc val=""/>
@@ -6978,11 +11445,1128 @@
 </dgm:styleDef>
 </file>
 
+<file path=xl/diagrams/quickStyle2.xml><?xml version="1.0" encoding="utf-8"?>
+<dgm:styleDef xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uniqueId="urn:microsoft.com/office/officeart/2005/8/quickstyle/3d1">
+  <dgm:title val=""/>
+  <dgm:desc val=""/>
+  <dgm:catLst>
+    <dgm:cat type="3D" pri="11100"/>
+  </dgm:catLst>
+  <dgm:scene3d>
+    <a:camera prst="orthographicFront"/>
+    <a:lightRig rig="threePt" dir="t"/>
+  </dgm:scene3d>
+  <dgm:styleLbl name="node0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="lnNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="vennNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="tx1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="node4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgImgPlace1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" prstMaterial="plastic">
+      <a:bevelT w="88900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-80000" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgSibTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+      <a:bevelB w="25400" h="25400" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="sibTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-40000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="callout">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="127000" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="asst3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-100000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans2D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-60000" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="parChTrans1D4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="conFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidFgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidAlignAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="solidBgAcc1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="alignAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgAccFollowNode1">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc0">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc2">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc3">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgAcc4">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="bgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="dkBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="plastic">
+      <a:bevelT w="50800" h="50800"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="2">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="trBgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="-190500" extrusionH="12700" prstMaterial="matte"/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="fgShp">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="flat" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d z="190500" prstMaterial="plastic">
+      <a:bevelT w="120900" h="88900"/>
+      <a:bevelB w="88900" h="31750" prst="angle"/>
+    </dgm:sp3d>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="1">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="3">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor">
+        <a:schemeClr val="lt1"/>
+      </a:fontRef>
+    </dgm:style>
+  </dgm:styleLbl>
+  <dgm:styleLbl name="revTx">
+    <dgm:scene3d>
+      <a:camera prst="orthographicFront"/>
+      <a:lightRig rig="threePt" dir="t"/>
+    </dgm:scene3d>
+    <dgm:sp3d/>
+    <dgm:txPr/>
+    <dgm:style>
+      <a:lnRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:lnRef>
+      <a:fillRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:fillRef>
+      <a:effectRef idx="0">
+        <a:scrgbClr r="0" g="0" b="0"/>
+      </a:effectRef>
+      <a:fontRef idx="minor"/>
+    </dgm:style>
+  </dgm:styleLbl>
+</dgm:styleDef>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9305192" cy="6081346"/>
+    <xdr:ext cx="9296400" cy="6071251"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7207,7 +12791,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6671895" y="1200150"/>
+    <xdr:pos x="6862395" y="2302329"/>
     <xdr:ext cx="4615229" cy="3572609"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7215,6 +12799,232 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D6369F5-ED15-4DD4-AD5A-D8DDE7DEB31F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1424609</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>26366</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>432362</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D5A1BF6-6ABD-4573-839F-EAD1BB637457}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1767509" y="405849"/>
+          <a:ext cx="297207" cy="407513"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>49695</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Arrow: Left 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1C2944D-C4CC-404C-BE59-5A4B69882CBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2090766" y="1477854"/>
+          <a:ext cx="521805" cy="198782"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 42001"/>
+            <a:gd name="adj2" fmla="val 110000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>525647</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148788</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>148645</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3" descr="Smiling face outline with solid fill">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B6F397-6DFC-42D0-AB79-1CDD37B3E574}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364347" y="339288"/>
+          <a:ext cx="556262" cy="556062"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>75395</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>556843</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38AD2017-87FA-4A1C-A486-EB80F8B256F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/diagram">
+          <dgm:relIds xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:dm="rId4" r:lo="rId5" r:qs="rId6" r:cs="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="7948565" y="2713287"/>
+    <xdr:ext cx="6934247" cy="4930525"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F848289B-53CE-4716-B49E-BC0FD982B315}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7606,8 +13416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD3905B-E95B-4636-863D-328414AE3C59}">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7692,7 +13502,7 @@
         <v>2900</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" ref="G7:G12" si="1">F7/$F$12</f>
+        <f>F7/$F$12</f>
         <v>1.4160571110481752E-2</v>
       </c>
     </row>
@@ -7714,7 +13524,7 @@
         <v>4794</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="1"/>
+        <f>F8/$F$12</f>
         <v>2.340888893229294E-2</v>
       </c>
     </row>
@@ -7736,7 +13546,7 @@
         <v>4400</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="1"/>
+        <f>F9/$F$12</f>
         <v>2.1485004443489556E-2</v>
       </c>
     </row>
@@ -7758,7 +13568,7 @@
         <v>68000</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="1"/>
+        <f>F10/$F$12</f>
         <v>0.33204097776302038</v>
       </c>
     </row>
@@ -7780,7 +13590,7 @@
         <v>16700</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="1"/>
+        <f>F11/$F$12</f>
         <v>8.1545357774153546E-2</v>
       </c>
     </row>
@@ -7793,11 +13603,11 @@
         <v>78350</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ref="D12:E12" si="2">SUM(D6:D11)</f>
+        <f t="shared" ref="D12:E12" si="1">SUM(D6:D11)</f>
         <v>59624</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66820</v>
       </c>
       <c r="F12" s="4">
@@ -7805,7 +13615,7 @@
         <v>204794</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="1"/>
+        <f>F12/$F$12</f>
         <v>1</v>
       </c>
     </row>
@@ -7899,13 +13709,14 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:E11">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="C14:E17 C12:E12" formulaRange="1"/>
   </ignoredErrors>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8189,4 +14000,320 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAF6158-2E65-4CED-8DF1-A23D38422DE5}">
+  <dimension ref="B18:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="10" max="12" width="14" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="18" spans="2:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="B18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="9">
+        <v>45292</v>
+      </c>
+      <c r="D20" s="9">
+        <v>45323</v>
+      </c>
+      <c r="E20" s="9">
+        <v>45717</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>48000</v>
+      </c>
+      <c r="D21" s="4">
+        <v>25000</v>
+      </c>
+      <c r="E21" s="4">
+        <v>35000</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" ref="F21:F27" si="0">SUM(C21:E21)</f>
+        <v>108000</v>
+      </c>
+      <c r="G21" s="6">
+        <f>F21/$F$27</f>
+        <v>0.52735919997656178</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1000</v>
+      </c>
+      <c r="D22" s="5">
+        <v>950</v>
+      </c>
+      <c r="E22" s="5">
+        <v>950</v>
+      </c>
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>2900</v>
+      </c>
+      <c r="G22" s="6">
+        <f>F22/$F$27</f>
+        <v>1.4160571110481752E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="5">
+        <v>350</v>
+      </c>
+      <c r="D23" s="5">
+        <v>4324</v>
+      </c>
+      <c r="E23" s="5">
+        <v>120</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>4794</v>
+      </c>
+      <c r="G23" s="6">
+        <f>F23/$F$27</f>
+        <v>2.340888893229294E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1500</v>
+      </c>
+      <c r="D24" s="5">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1400</v>
+      </c>
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>4400</v>
+      </c>
+      <c r="G24" s="6">
+        <f>F24/$F$27</f>
+        <v>2.1485004443489556E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="5">
+        <v>22000</v>
+      </c>
+      <c r="D25" s="5">
+        <v>22000</v>
+      </c>
+      <c r="E25" s="5">
+        <v>24000</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>68000</v>
+      </c>
+      <c r="G25" s="6">
+        <f>F25/$F$27</f>
+        <v>0.33204097776302038</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5500</v>
+      </c>
+      <c r="D26" s="5">
+        <v>5850</v>
+      </c>
+      <c r="E26" s="5">
+        <v>5350</v>
+      </c>
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>16700</v>
+      </c>
+      <c r="G26" s="6">
+        <f>F26/$F$27</f>
+        <v>8.1545357774153546E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="4">
+        <f>SUM(C21:C26)</f>
+        <v>78350</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" ref="D27:E27" si="1">SUM(D21:D26)</f>
+        <v>59624</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>66820</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="0"/>
+        <v>204794</v>
+      </c>
+      <c r="G27" s="6">
+        <f>F27/$F$27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29">
+        <f>MIN(C21:C26)</f>
+        <v>350</v>
+      </c>
+      <c r="D29">
+        <f>MIN(D21:D26)</f>
+        <v>950</v>
+      </c>
+      <c r="E29">
+        <f>MIN(E21:E26)</f>
+        <v>120</v>
+      </c>
+      <c r="F29">
+        <f>MIN(F21:F26)</f>
+        <v>2900</v>
+      </c>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <f>MAX(C21:C26)</f>
+        <v>48000</v>
+      </c>
+      <c r="D30">
+        <f>MAX(D21:D26)</f>
+        <v>25000</v>
+      </c>
+      <c r="E30">
+        <f>MAX(E21:E26)</f>
+        <v>35000</v>
+      </c>
+      <c r="F30">
+        <f>MAX(F21:F26)</f>
+        <v>108000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31">
+        <f>AVERAGE(C21:C26)</f>
+        <v>13058.333333333334</v>
+      </c>
+      <c r="D31">
+        <f>AVERAGE(D21:D26)</f>
+        <v>9937.3333333333339</v>
+      </c>
+      <c r="E31">
+        <f>AVERAGE(E21:E26)</f>
+        <v>11136.666666666666</v>
+      </c>
+      <c r="F31">
+        <f>AVERAGE(F21:F26)</f>
+        <v>34132.333333333336</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <f>COUNT(C21:C26)</f>
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <f>COUNT(D21:D26)</f>
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <f>COUNT(E21:E26)</f>
+        <v>6</v>
+      </c>
+      <c r="F32">
+        <f>COUNT(F21:F26)</f>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B18:G18"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C21:E26">
+    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D&amp;C2024-2025 Monthly Budget&amp;ROkyanus Aydoğan</oddHeader>
+    <oddFooter>&amp;R&amp;P</oddFooter>
+  </headerFooter>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="8" max="1048575" man="1"/>
+  </colBreaks>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/learning-excel/Excel Working From Beginner to Advanced - MyFirstExcelWorkbook-01.xlsx
+++ b/learning-excel/Excel Working From Beginner to Advanced - MyFirstExcelWorkbook-01.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analysis-foundations\learning-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69BE3CCC-10B4-42D1-B2A3-A3DF62E5DAE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EBF606-9660-47CF-9E4F-C774F63210AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" firstSheet="1" activeTab="3" xr2:uid="{4EC8B933-5C16-44B8-8BD1-3B03B4E7E629}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="15585" xr2:uid="{4EC8B933-5C16-44B8-8BD1-3B03B4E7E629}"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart Monthly Budget" sheetId="14" r:id="rId1"/>
-    <sheet name="Monthly Budget " sheetId="12" r:id="rId2"/>
-    <sheet name="Copy Exercise" sheetId="3" r:id="rId3"/>
+    <sheet name="Credit card log" sheetId="17" r:id="rId1"/>
+    <sheet name="Chart Monthly Budget" sheetId="14" r:id="rId2"/>
+    <sheet name="Monthly Budget " sheetId="12" r:id="rId3"/>
     <sheet name="Monthly Budget - Print Setting" sheetId="15" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="ColumnTitle1">Data[[#Headers],[Date]]</definedName>
+    <definedName name="LastCol">MATCH(REPT("z",255),#REF!)</definedName>
+    <definedName name="LastRow">MATCH(9.99E+307,#REF!)</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Credit card log'!$3:$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,10 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="15">
-  <si>
-    <t>Montlhy Budget</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="33">
   <si>
     <t>Bills</t>
   </si>
@@ -85,18 +88,79 @@
   <si>
     <t>Monthly Budget</t>
   </si>
+  <si>
+    <t>*(does not include interest)</t>
+  </si>
+  <si>
+    <t>Balance*</t>
+  </si>
+  <si>
+    <t>Transaction fees</t>
+  </si>
+  <si>
+    <t>Merchant name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Enter payments as negative amounts in table, below.</t>
+  </si>
+  <si>
+    <t>Credit Card Name</t>
+  </si>
+  <si>
+    <t>Devreden Bakiye</t>
+  </si>
+  <si>
+    <t>Akbank</t>
+  </si>
+  <si>
+    <t>Market + fatura</t>
+  </si>
+  <si>
+    <t>Çeşitli</t>
+  </si>
+  <si>
+    <t>Alışveriş</t>
+  </si>
+  <si>
+    <t>Yeme-İçme + günlük</t>
+  </si>
+  <si>
+    <t>Diğer</t>
+  </si>
+  <si>
+    <t>İşsizlik maaşı ile ödeme</t>
+  </si>
+  <si>
+    <t>Kardeş maaşı ile ödeme</t>
+  </si>
+  <si>
+    <t>Emekli ile ödeme</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="8">
+    <numFmt numFmtId="42" formatCode="_-&quot;₺&quot;* #,##0_-;\-&quot;₺&quot;* #,##0_-;_-&quot;₺&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;₺&quot;* #,##0.00_-;\-&quot;₺&quot;* #,##0.00_-;_-&quot;₺&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="_-[$€-2]\ * #,##0.00_-;\-[$€-2]\ * #,##0.00_-;_-[$€-2]\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="[$₺-41F]#,##0.00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +202,114 @@
       <charset val="162"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1" tint="0.34998626667073579"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Aptos Display"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +334,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14996795556505021"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -191,17 +385,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="6" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyFont="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -215,14 +493,267 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="17">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="17" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="17" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="18" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="17" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="20" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="21" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="17" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="22" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="23" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="18" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="24">
+    <cellStyle name="Amount" xfId="11" xr:uid="{067CDA47-A9D5-42FB-8A34-63C555C1FADF}"/>
     <cellStyle name="AwesomeStyle" xfId="3" xr:uid="{65150C0F-7736-4FBF-89DC-FF58D6DB8DAA}"/>
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Currency" xfId="4" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Currency [0] 2" xfId="19" xr:uid="{5D0D245E-2F0D-4E21-8C61-3992C518CE96}"/>
+    <cellStyle name="Currency 2" xfId="18" xr:uid="{926980A8-E041-4CB0-894A-29AB88A2BD9E}"/>
+    <cellStyle name="Date" xfId="8" xr:uid="{25F744EB-DC48-4D89-AFC7-801DD2C78B12}"/>
+    <cellStyle name="Date 2" xfId="20" xr:uid="{38E01BA8-2E42-474B-9AAA-8A3DC09FFD01}"/>
+    <cellStyle name="Explanatory Text 2" xfId="12" xr:uid="{36721F1D-A737-4058-85A5-1A04265658BF}"/>
+    <cellStyle name="Heading 1 2" xfId="22" xr:uid="{ACF47221-4F9F-43DB-8504-050D7F08E350}"/>
+    <cellStyle name="Heading 2 2" xfId="15" xr:uid="{81E962D4-319E-42CF-9B0E-E90F78347BB1}"/>
+    <cellStyle name="Heading 2 3" xfId="21" xr:uid="{D1913F80-4B17-4F15-8B2D-E41287E263A1}"/>
+    <cellStyle name="Heading 3 2" xfId="10" xr:uid="{2D1BF034-0522-4466-9946-0BE44C63059E}"/>
+    <cellStyle name="Heading 4 Right aligned" xfId="16" xr:uid="{2CE340C6-44BE-4140-B10F-897F4DA2BB0A}"/>
+    <cellStyle name="Loan Summary" xfId="13" xr:uid="{0180723F-9657-4B16-B29F-4C066C3E8BF7}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{C1330DF8-C5F4-46C7-BAFE-F5711B60157F}"/>
+    <cellStyle name="Normal 3" xfId="17" xr:uid="{7586D2E5-82AE-430B-BA29-EF0914C24989}"/>
+    <cellStyle name="Number" xfId="9" xr:uid="{7E2D30BE-C2D2-4D7A-8DD3-ADB26E3534FA}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent 2" xfId="14" xr:uid="{8B497EA1-7954-47E8-990D-E6A99301CE83}"/>
+    <cellStyle name="Table Amount" xfId="7" xr:uid="{79E33E4A-2F9C-4099-A328-91B9FD2F580E}"/>
+    <cellStyle name="Title 2" xfId="23" xr:uid="{FE0C7761-2F05-42B5-8B23-D4DD8A581DE8}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1" tint="0.24994659260841701"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -243,8 +774,273 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$₺-41F]#,##0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="168" formatCode="[$₺-41F]#,##0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <charset val="238"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Display"/>
+        <family val="1"/>
+        <scheme val="major"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor theme="6" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="mediumDashed">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="medium">
+          <color theme="0"/>
+        </top>
+        <bottom style="medium">
+          <color theme="0"/>
+        </bottom>
+        <horizontal style="medium">
+          <color theme="0"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <border>
+        <top style="double">
+          <color theme="4"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1" tint="0.34998626667073579"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1" tint="0.24994659260841701"/>
+      </font>
+      <border>
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="2" tint="-9.9948118533890809E-2"/>
+        </horizontal>
+      </border>
+    </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Loan Amortization Schedule" pivot="0" count="3" xr9:uid="{68D86AE2-33E2-466F-A3D3-12AE868A916E}">
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+    </tableStyle>
+    <tableStyle name="Table Style 1" pivot="0" count="6" xr9:uid="{A2562EC2-7814-4264-B617-2D493C35B01F}">
+      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="headerRow" dxfId="21"/>
+      <tableStyleElement type="totalRow" dxfId="20"/>
+      <tableStyleElement type="lastColumn" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="lastTotalCell" dxfId="17"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -8977,8 +9773,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="344634" y="0"/>
-          <a:ext cx="3905862" cy="2743200"/>
+          <a:off x="342899" y="0"/>
+          <a:ext cx="3886200" cy="2743200"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -9056,8 +9852,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="155713" y="822960"/>
-          <a:ext cx="1378539" cy="1097280"/>
+          <a:off x="154930" y="822960"/>
+          <a:ext cx="1371600" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9191,8 +9987,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="209278" y="876525"/>
-        <a:ext cx="1271409" cy="990150"/>
+        <a:off x="208495" y="876525"/>
+        <a:ext cx="1264470" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}">
@@ -9202,8 +9998,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1608296" y="822960"/>
-          <a:ext cx="1378539" cy="1097280"/>
+          <a:off x="1600199" y="822960"/>
+          <a:ext cx="1371600" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9337,8 +10133,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1661861" y="876525"/>
-        <a:ext cx="1271409" cy="990150"/>
+        <a:off x="1653764" y="876525"/>
+        <a:ext cx="1264470" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}">
@@ -9348,8 +10144,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3060878" y="822960"/>
-          <a:ext cx="1378539" cy="1097280"/>
+          <a:off x="3045469" y="822960"/>
+          <a:ext cx="1371600" cy="1097280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9483,8 +10279,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3114443" y="876525"/>
-        <a:ext cx="1271409" cy="990150"/>
+        <a:off x="3099034" y="876525"/>
+        <a:ext cx="1264470" cy="990150"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -9506,8 +10302,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="515036" y="0"/>
-          <a:ext cx="5837082" cy="4009531"/>
+          <a:off x="557184" y="0"/>
+          <a:ext cx="6314761" cy="3987017"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -9585,8 +10381,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3950" y="1202859"/>
-          <a:ext cx="2203932" cy="1603812"/>
+          <a:off x="1587" y="1196105"/>
+          <a:ext cx="2379190" cy="1594806"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9657,12 +10453,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="87630" tIns="87630" rIns="87630" bIns="87630" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="1022350">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9675,13 +10471,13 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="2200" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="2300" kern="1200"/>
             <a:t>Collect Income</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2200" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="2300" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9694,13 +10490,13 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="1800" kern="1200"/>
             <a:t>Salary/ side income</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1800" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9713,15 +10509,15 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="1800" kern="1200"/>
             <a:t>Set a target amount</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="82242" y="1281151"/>
-        <a:ext cx="2047348" cy="1447228"/>
+        <a:off x="79439" y="1273957"/>
+        <a:ext cx="2223486" cy="1439102"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{4AF387EC-071A-495C-B3C8-8FD928F3F851}">
@@ -9731,8 +10527,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2331611" y="1202859"/>
-          <a:ext cx="2203932" cy="1603812"/>
+          <a:off x="2524970" y="1196105"/>
+          <a:ext cx="2379190" cy="1594806"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9803,12 +10599,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="87630" tIns="87630" rIns="87630" bIns="87630" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="1022350">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9821,13 +10617,13 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="2200" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="2300" kern="1200"/>
             <a:t>Plan Spending</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2200" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="2300" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9840,13 +10636,13 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="1800" kern="1200"/>
             <a:t>Bills</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1800" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9859,15 +10655,15 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="1800" kern="1200"/>
             <a:t>Daily needs</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2409903" y="1281151"/>
-        <a:ext cx="2047348" cy="1447228"/>
+        <a:off x="2602822" y="1273957"/>
+        <a:ext cx="2223486" cy="1439102"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{DE0BD434-849F-4135-AAA4-AFA4E216BFC6}">
@@ -9877,8 +10673,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4659273" y="1202859"/>
-          <a:ext cx="2203932" cy="1603812"/>
+          <a:off x="5048353" y="1196105"/>
+          <a:ext cx="2379190" cy="1594806"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -9949,12 +10745,12 @@
         </a:fontRef>
       </dsp:style>
       <dsp:txBody>
-        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="83820" tIns="83820" rIns="83820" bIns="83820" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
+        <a:bodyPr spcFirstLastPara="0" vert="horz" wrap="square" lIns="87630" tIns="87630" rIns="87630" bIns="87630" numCol="1" spcCol="1270" anchor="t" anchorCtr="0">
           <a:noAutofit/>
         </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="977900">
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" defTabSz="1022350">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9967,13 +10763,13 @@
             <a:buNone/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="2200" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="2300" kern="1200"/>
             <a:t>Review &amp; Adjust</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="2200" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="2300" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -9986,13 +10782,13 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="1800" kern="1200"/>
             <a:t>Money left</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1800" kern="1200"/>
         </a:p>
         <a:p>
-          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="755650">
+          <a:pPr marL="171450" lvl="1" indent="-171450" algn="l" defTabSz="800100">
             <a:lnSpc>
               <a:spcPct val="90000"/>
             </a:lnSpc>
@@ -10005,15 +10801,15 @@
             <a:buChar char="•"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="tr-TR" sz="1700" kern="1200"/>
+            <a:rPr lang="tr-TR" sz="1800" kern="1200"/>
             <a:t>Cut unnecessary spending</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1700" kern="1200"/>
+          <a:endParaRPr lang="en-US" sz="1800" kern="1200"/>
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4737565" y="1281151"/>
-        <a:ext cx="2047348" cy="1447228"/>
+        <a:off x="5126205" y="1273957"/>
+        <a:ext cx="2223486" cy="1439102"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -12564,9 +13360,308 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>728383</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1266263</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77386F6-359E-41AF-8D81-D324E0F595D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2233333" y="0"/>
+          <a:ext cx="3033430" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="3600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:latin typeface="+mj-lt"/>
+            </a:rPr>
+            <a:t>Credit Card Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>227610</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>7733</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="10517860" cy="1141104"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="Group 2" descr="decorative element with hand holding credit card">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0C06B87-7A68-485E-BAAD-81FFB7B5F7EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="227610" y="7733"/>
+          <a:ext cx="10517860" cy="1141104"/>
+          <a:chOff x="227610" y="7733"/>
+          <a:chExt cx="10484748" cy="1139743"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="Group 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D14587C6-797C-65E4-ECDC-3953710078B3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="227919" y="7733"/>
+            <a:ext cx="10484439" cy="1137269"/>
+            <a:chOff x="224117" y="0"/>
+            <a:chExt cx="10467089" cy="1135268"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="Rectangle 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E17A6D2E-70CA-86D9-ECEC-F3AC7E0ACF40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="224117" y="14655"/>
+              <a:ext cx="10467089" cy="1120613"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="tx2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D864E98-5C5E-A6F8-75DB-FE901E91FC7A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1826071" y="0"/>
+              <a:ext cx="8651051" cy="1120588"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="4400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t>Woodgrove</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="4400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> Bank</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="4400">
+                  <a:solidFill>
+                    <a:schemeClr val="bg1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mj-lt"/>
+                </a:rPr>
+                <a:t> debit card</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="4400">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mj-lt"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="Picture 4" descr="hand holding credit card">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718BAD77-46BF-01AF-D5A1-5822A41CD539}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="227610" y="159357"/>
+            <a:ext cx="1398191" cy="988119"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6071251"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -12595,7 +13690,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12821,7 +13916,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -13045,6 +14140,37 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EB789D22-759C-4849-A1E2-9F97DB7CAD27}" name="Data" displayName="Data" ref="B3:G12" totalsRowCount="1" headerRowDxfId="16" dataDxfId="15" totalsRowDxfId="14" headerRowCellStyle="Normal" dataCellStyle="Normal" totalsRowCellStyle="Normal">
+  <autoFilter ref="B3:G11" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Date" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="5" dataCellStyle="Date">
+      <calculatedColumnFormula>TODAY()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Description" dataDxfId="12" totalsRowDxfId="4" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Amount" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Merchant name" dataDxfId="11" totalsRowDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Transaction fees" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="1" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Balance*" dataDxfId="8" totalsRowDxfId="0" dataCellStyle="Currency [0]">
+      <calculatedColumnFormula>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter credit card payment details such as Date, Description, Amount, Merchant Name, and Transaction fees in this table. Balance excluding interest is automatically calculated"/>
+    </ext>
+  </extLst>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13413,6 +14539,283 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CD56CCD-EE54-4BDE-8496-779611148FD7}">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="10" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="10" customWidth="1"/>
+    <col min="8" max="8" width="3.5703125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="11.28515625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+    </row>
+    <row r="2" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>46023</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="25">
+        <v>40000</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0</v>
+      </c>
+      <c r="G4" s="27">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>46024</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="25">
+        <v>8000</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0</v>
+      </c>
+      <c r="G5" s="27">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>46032</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="25">
+        <v>12000</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="27">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>46043</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="25">
+        <v>14000</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0</v>
+      </c>
+      <c r="G7" s="27">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>46051</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="25">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0</v>
+      </c>
+      <c r="G8" s="27">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>46028</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="25">
+        <v>-18230</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+      <c r="G9" s="27">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>61770</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>46040</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="26">
+        <v>-25000</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="28">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>36770</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>46048</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="26">
+        <v>-25000</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="13">
+        <v>0</v>
+      </c>
+      <c r="G11" s="28">
+        <f>IFERROR(IF(ROW()-ROW(Data[[#Headers],[Balance*]])=1,Data[[#This Row],[Transaction fees]]+Data[[#This Row],[Amount]],SUM(INDEX(Data[Amount],1,1):Data[[#This Row],[Amount]],INDEX(Data[Transaction fees],1,1):Data[[#This Row],[Transaction fees]])), "")</f>
+        <v>11770</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23">
+        <f>SUBTOTAL(109,Data[Amount])</f>
+        <v>11770</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23">
+        <f>SUBTOTAL(109,Data[Transaction fees])</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="12"/>
+      <c r="G13" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="8">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Balance excluding interest is automatically calculated in this column under this heading" sqref="G3" xr:uid="{00000000-0002-0000-0000-000007000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Transaction fees in this column under this heading" sqref="F3" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Merchant name in this column under this heading" sqref="E3" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Amount in this column under this heading" sqref="D3" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Description in this column under this heading" sqref="C3" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Date in this column under this heading" sqref="B3" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Credit Card Name to update the title" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a credit card log in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.4" right="0.4" top="0.4" bottom="0.4" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B4:B6" calculatedColumn="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD3905B-E95B-4636-863D-328414AE3C59}">
   <dimension ref="B3:G17"/>
   <sheetViews>
@@ -13432,196 +14835,196 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="B3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
         <v>45292</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>45323</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <v>45717</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
         <v>48000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>25000</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>35000</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <f t="shared" ref="F6:F12" si="0">SUM(C6:E6)</f>
         <v>108000</v>
       </c>
-      <c r="G6" s="6">
-        <f>F6/$F$12</f>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G12" si="1">F6/$F$12</f>
         <v>0.52735919997656178</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
         <v>1000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>950</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>950</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
-      <c r="G7" s="6">
-        <f>F7/$F$12</f>
+      <c r="G7" s="4">
+        <f t="shared" si="1"/>
         <v>1.4160571110481752E-2</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="5">
+        <v>12</v>
+      </c>
+      <c r="C8" s="3">
         <v>350</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>4324</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>120</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>4794</v>
       </c>
-      <c r="G8" s="6">
-        <f>F8/$F$12</f>
+      <c r="G8" s="4">
+        <f t="shared" si="1"/>
         <v>2.340888893229294E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
         <v>1500</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>1500</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="G9" s="6">
-        <f>F9/$F$12</f>
+      <c r="G9" s="4">
+        <f t="shared" si="1"/>
         <v>2.1485004443489556E-2</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
         <v>22000</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>22000</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="3">
         <v>24000</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <f t="shared" si="0"/>
         <v>68000</v>
       </c>
-      <c r="G10" s="6">
-        <f>F10/$F$12</f>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
         <v>0.33204097776302038</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
         <v>5500</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>5850</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="3">
         <v>5350</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <f t="shared" si="0"/>
         <v>16700</v>
       </c>
-      <c r="G11" s="6">
-        <f>F11/$F$12</f>
+      <c r="G11" s="4">
+        <f t="shared" si="1"/>
         <v>8.1545357774153546E-2</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
         <f>SUM(C6:C11)</f>
         <v>78350</v>
       </c>
-      <c r="D12" s="4">
-        <f t="shared" ref="D12:E12" si="1">SUM(D6:D11)</f>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:E12" si="2">SUM(D6:D11)</f>
         <v>59624</v>
       </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
         <v>66820</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="2">
         <f t="shared" si="0"/>
         <v>204794</v>
       </c>
-      <c r="G12" s="6">
-        <f>F12/$F$12</f>
+      <c r="G12" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>9</v>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C14">
         <f>MIN(C6:C11)</f>
@@ -13639,11 +15042,11 @@
         <f>MIN(F6:F11)</f>
         <v>2900</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>10</v>
+      <c r="B15" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C15">
         <f>MAX(C6:C11)</f>
@@ -13663,8 +15066,8 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="7" t="s">
-        <v>11</v>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C16">
         <f>AVERAGE(C6:C11)</f>
@@ -13684,8 +15087,8 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>12</v>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C17">
         <f>COUNT(C6:C11)</f>
@@ -13709,7 +15112,7 @@
     <mergeCell ref="B3:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="C6:E11">
-    <cfRule type="aboveAverage" dxfId="1" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" r:id="rId1"/>
@@ -13720,294 +15123,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63FC743-2487-47E6-ADBA-53D754771889}">
-  <dimension ref="A1:F15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45292</v>
-      </c>
-      <c r="C3" s="2">
-        <v>45323</v>
-      </c>
-      <c r="D3" s="2">
-        <v>45717</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>48000</v>
-      </c>
-      <c r="C4">
-        <v>25000</v>
-      </c>
-      <c r="D4">
-        <v>35000</v>
-      </c>
-      <c r="E4">
-        <f t="shared" ref="E4:E10" si="0">SUM(B4:D4)</f>
-        <v>108000</v>
-      </c>
-      <c r="F4" s="3" t="e">
-        <f t="shared" ref="F4:F10" si="1">E4/$F$12</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1000</v>
-      </c>
-      <c r="C5">
-        <v>950</v>
-      </c>
-      <c r="D5">
-        <v>950</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>2900</v>
-      </c>
-      <c r="F5" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>350</v>
-      </c>
-      <c r="C6">
-        <v>4324</v>
-      </c>
-      <c r="D6">
-        <v>120</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4794</v>
-      </c>
-      <c r="F6" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1500</v>
-      </c>
-      <c r="C7">
-        <v>1500</v>
-      </c>
-      <c r="D7">
-        <v>1400</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>4400</v>
-      </c>
-      <c r="F7" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>22000</v>
-      </c>
-      <c r="C8">
-        <v>22000</v>
-      </c>
-      <c r="D8">
-        <v>24000</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>68000</v>
-      </c>
-      <c r="F8" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>5500</v>
-      </c>
-      <c r="C9">
-        <v>5850</v>
-      </c>
-      <c r="D9">
-        <v>5350</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>16700</v>
-      </c>
-      <c r="F9" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <f>SUM(B4:B9)</f>
-        <v>78350</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:D10" si="2">SUM(C4:C9)</f>
-        <v>59624</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="2"/>
-        <v>66820</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>204794</v>
-      </c>
-      <c r="F10" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <f>MIN(B4:B9)</f>
-        <v>350</v>
-      </c>
-      <c r="C12">
-        <f>MIN(C4:C9)</f>
-        <v>950</v>
-      </c>
-      <c r="D12">
-        <f>MIN(D4:D9)</f>
-        <v>120</v>
-      </c>
-      <c r="E12">
-        <f>MIN(E4:E9)</f>
-        <v>2900</v>
-      </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13">
-        <f>MAX(B4:B9)</f>
-        <v>48000</v>
-      </c>
-      <c r="C13">
-        <f>MAX(C4:C9)</f>
-        <v>25000</v>
-      </c>
-      <c r="D13">
-        <f>MAX(D4:D9)</f>
-        <v>35000</v>
-      </c>
-      <c r="E13">
-        <f>MAX(E4:E9)</f>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14">
-        <f>AVERAGE(B4:B9)</f>
-        <v>13058.333333333334</v>
-      </c>
-      <c r="C14">
-        <f>AVERAGE(C4:C9)</f>
-        <v>9937.3333333333339</v>
-      </c>
-      <c r="D14">
-        <f>AVERAGE(D4:D9)</f>
-        <v>11136.666666666666</v>
-      </c>
-      <c r="E14">
-        <f>AVERAGE(E4:E9)</f>
-        <v>34132.333333333336</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15">
-        <f>COUNT(B4:B9)</f>
-        <v>6</v>
-      </c>
-      <c r="C15">
-        <f>COUNT(C4:C9)</f>
-        <v>6</v>
-      </c>
-      <c r="D15">
-        <f>COUNT(D4:D9)</f>
-        <v>6</v>
-      </c>
-      <c r="E15">
-        <f>COUNT(E4:E9)</f>
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAF6158-2E65-4CED-8DF1-A23D38422DE5}">
   <dimension ref="B18:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="85" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14025,196 +15146,196 @@
   </cols>
   <sheetData>
     <row r="18" spans="2:7" ht="37.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="B18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
+      <c r="B18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
         <v>45292</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="7">
         <v>45323</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="7">
         <v>45717</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>7</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
         <v>48000</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="2">
         <v>25000</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>35000</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="2">
         <f t="shared" ref="F21:F27" si="0">SUM(C21:E21)</f>
         <v>108000</v>
       </c>
-      <c r="G21" s="6">
-        <f>F21/$F$27</f>
+      <c r="G21" s="4">
+        <f t="shared" ref="G21:G27" si="1">F21/$F$27</f>
         <v>0.52735919997656178</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3">
         <v>1000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
         <v>950</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="3">
         <v>950</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="3">
         <f t="shared" si="0"/>
         <v>2900</v>
       </c>
-      <c r="G22" s="6">
-        <f>F22/$F$27</f>
+      <c r="G22" s="4">
+        <f t="shared" si="1"/>
         <v>1.4160571110481752E-2</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="5">
+        <v>12</v>
+      </c>
+      <c r="C23" s="3">
         <v>350</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="3">
         <v>4324</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="3">
         <v>120</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="3">
         <f t="shared" si="0"/>
         <v>4794</v>
       </c>
-      <c r="G23" s="6">
-        <f>F23/$F$27</f>
+      <c r="G23" s="4">
+        <f t="shared" si="1"/>
         <v>2.340888893229294E-2</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="5">
+        <v>3</v>
+      </c>
+      <c r="C24" s="3">
         <v>1500</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="3">
         <v>1400</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="3">
         <f t="shared" si="0"/>
         <v>4400</v>
       </c>
-      <c r="G24" s="6">
-        <f>F24/$F$27</f>
+      <c r="G24" s="4">
+        <f t="shared" si="1"/>
         <v>2.1485004443489556E-2</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3">
         <v>22000</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="3">
         <v>22000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="3">
         <v>24000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="3">
         <f t="shared" si="0"/>
         <v>68000</v>
       </c>
-      <c r="G25" s="6">
-        <f>F25/$F$27</f>
+      <c r="G25" s="4">
+        <f t="shared" si="1"/>
         <v>0.33204097776302038</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="5">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
         <v>5500</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>5850</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>5350</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <f t="shared" si="0"/>
         <v>16700</v>
       </c>
-      <c r="G26" s="6">
-        <f>F26/$F$27</f>
+      <c r="G26" s="4">
+        <f t="shared" si="1"/>
         <v>8.1545357774153546E-2</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4">
+        <v>6</v>
+      </c>
+      <c r="C27" s="2">
         <f>SUM(C21:C26)</f>
         <v>78350</v>
       </c>
-      <c r="D27" s="4">
-        <f t="shared" ref="D27:E27" si="1">SUM(D21:D26)</f>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27:E27" si="2">SUM(D21:D26)</f>
         <v>59624</v>
       </c>
-      <c r="E27" s="4">
-        <f t="shared" si="1"/>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
         <v>66820</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="2">
         <f t="shared" si="0"/>
         <v>204794</v>
       </c>
-      <c r="G27" s="6">
-        <f>F27/$F$27</f>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>9</v>
+      <c r="B29" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="C29">
         <f>MIN(C21:C26)</f>
@@ -14232,11 +15353,11 @@
         <f>MIN(F21:F26)</f>
         <v>2900</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>10</v>
+      <c r="B30" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="C30">
         <f>MAX(C21:C26)</f>
@@ -14256,8 +15377,8 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="7" t="s">
-        <v>11</v>
+      <c r="B31" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="C31">
         <f>AVERAGE(C21:C26)</f>
@@ -14277,8 +15398,8 @@
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="7" t="s">
-        <v>12</v>
+      <c r="B32" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C32">
         <f>COUNT(C21:C26)</f>
@@ -14302,7 +15423,7 @@
     <mergeCell ref="B18:G18"/>
   </mergeCells>
   <conditionalFormatting sqref="C21:E26">
-    <cfRule type="aboveAverage" dxfId="0" priority="1"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
